--- a/Traking.xlsx
+++ b/Traking.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repo new\Занятия по C#\Teaching\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4ACEC13-2C5C-4787-9FA6-EE7456190A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>№</t>
   </si>
@@ -52,16 +46,19 @@
 Тернарный оператор = ? :
 Типы DateTime и TimeSpan</t>
   </si>
+  <si>
+    <t>Цикл for</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="[$-FC19]dd\ mmmm\ yyyy\ \г\.;@"/>
-    <numFmt numFmtId="167" formatCode="#,##0\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="[$-FC19]dd\ mmmm\ yyyy\ \г\.;@"/>
+    <numFmt numFmtId="165" formatCode="#,##0\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,37 +144,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -240,7 +237,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -275,7 +272,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -452,30 +449,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" thickBottom="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" thickBottom="1"/>
   <cols>
-    <col min="1" max="1" width="5.4609375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.921875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="52.15234375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.3046875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="52.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="15.6" thickTop="1" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -489,7 +486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="59.15" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="58.8" thickTop="1" thickBot="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -503,7 +500,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="87.9" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" ht="87" thickBot="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -515,6 +512,17 @@
       </c>
       <c r="D3" s="4">
         <v>800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" thickBot="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44442</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Traking.xlsx
+++ b/Traking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>№</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Цикл for</t>
+  </si>
+  <si>
+    <t>Цикл while, do-while</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -457,11 +460,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1"/>
@@ -524,6 +527,20 @@
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D4" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" thickBot="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44446</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Traking.xlsx
+++ b/Traking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>№</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Цикл while, do-while</t>
+  </si>
+  <si>
+    <t>Вложенные циклы</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -460,11 +463,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1"/>
@@ -541,6 +544,20 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="D5" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" thickBot="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44448</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Traking.xlsx
+++ b/Traking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>№</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>Цикл for</t>
+  </si>
+  <si>
+    <t>Цикл while, do-while</t>
+  </si>
+  <si>
+    <t>Вложенные циклы</t>
   </si>
 </sst>
 </file>
@@ -457,11 +463,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1"/>
@@ -524,6 +530,34 @@
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D4" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" thickBot="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44446</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" thickBot="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44448</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Traking.xlsx
+++ b/Traking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>№</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>Вложенные циклы</t>
+  </si>
+  <si>
+    <t>Одномерные массивы:
+Инициализация
+обход элементов массива циклом foreach
+обход элементов массива циклом for</t>
   </si>
 </sst>
 </file>
@@ -455,7 +461,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -463,11 +469,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1"/>
@@ -558,6 +564,20 @@
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="D6" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="58.2" thickBot="1">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44460</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Traking.xlsx
+++ b/Traking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>№</t>
   </si>
@@ -60,6 +60,13 @@
 Инициализация
 обход элементов массива циклом foreach
 обход элементов массива циклом for</t>
+  </si>
+  <si>
+    <t>Обработка массива:
+поиск элементов
+сортировка
+работа с двумя массивами
+использование стандартных функций массивов Array.Func(...), varArray.Func(...): Array.Sort(), varArray.Take(count), varArray.Reverse(), varArray.Max(), varArray.Min();</t>
   </si>
 </sst>
 </file>
@@ -461,7 +468,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -469,11 +476,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C9:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1"/>
@@ -579,6 +586,17 @@
         <v>9</v>
       </c>
     </row>
+    <row r="8" spans="1:4" ht="115.8" thickBot="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>44461</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Traking.xlsx
+++ b/Traking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>№</t>
   </si>
@@ -67,6 +67,10 @@
 сортировка
 работа с двумя массивами
 использование стандартных функций массивов Array.Func(...), varArray.Func(...): Array.Sort(), varArray.Take(count), varArray.Reverse(), varArray.Max(), varArray.Min();</t>
+  </si>
+  <si>
+    <t>Массив массивов (двумерный массив)
+.OrderBy(...), .OrderByDescending(...), .Min(), .Max()</t>
   </si>
 </sst>
 </file>
@@ -468,7 +472,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -476,11 +480,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C9:C10"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1"/>
@@ -597,6 +601,17 @@
         <v>10</v>
       </c>
     </row>
+    <row r="9" spans="1:4" ht="29.4" thickBot="1">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>44463</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Traking.xlsx
+++ b/Traking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>№</t>
   </si>
@@ -54,6 +54,23 @@
   </si>
   <si>
     <t>Вложенные циклы</t>
+  </si>
+  <si>
+    <t>Одномерные массивы:
+Инициализация
+обход элементов массива циклом foreach
+обход элементов массива циклом for</t>
+  </si>
+  <si>
+    <t>Обработка массива:
+поиск элементов
+сортировка
+работа с двумя массивами
+использование стандартных функций массивов Array.Func(...), varArray.Func(...): Array.Sort(), varArray.Take(count), varArray.Reverse(), varArray.Max(), varArray.Min();</t>
+  </si>
+  <si>
+    <t>Массив массивов (двумерный массив)
+.OrderBy(...), .OrderByDescending(...), .Min(), .Max()</t>
   </si>
 </sst>
 </file>
@@ -455,7 +472,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -463,11 +480,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1"/>
@@ -558,6 +575,42 @@
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="D6" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="58.2" thickBot="1">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44460</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="115.8" thickBot="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>44461</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="29.4" thickBot="1">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>44463</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Traking.xlsx
+++ b/Traking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>№</t>
   </si>
@@ -71,6 +71,10 @@
   <si>
     <t>Массив массивов (двумерный массив)
 .OrderBy(...), .OrderByDescending(...), .Min(), .Max()</t>
+  </si>
+  <si>
+    <t>Базовое определение функции
+Работа со строками + некоторые функции LINQ</t>
   </si>
 </sst>
 </file>
@@ -472,7 +476,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -480,11 +484,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1"/>
@@ -612,6 +616,17 @@
         <v>11</v>
       </c>
     </row>
+    <row r="10" spans="1:4" ht="29.4" thickBot="1">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44465</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Traking.xlsx
+++ b/Traking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>№</t>
   </si>
@@ -75,6 +75,10 @@
   <si>
     <t>Базовое определение функции
 Работа со строками + некоторые функции LINQ</t>
+  </si>
+  <si>
+    <t>out параметры функции
+Рекурсия начало</t>
   </si>
 </sst>
 </file>
@@ -476,7 +480,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -484,11 +488,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C14:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1"/>
@@ -627,6 +631,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="11" spans="1:4" ht="29.4" thickBot="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44467</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Traking.xlsx
+++ b/Traking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>№</t>
   </si>
@@ -79,6 +79,10 @@
   <si>
     <t>out параметры функции
 Рекурсия начало</t>
+  </si>
+  <si>
+    <t>Разбор дз
+сложная задача с рекурсией</t>
   </si>
 </sst>
 </file>
@@ -488,11 +492,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C14:C15"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C15:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1"/>
@@ -642,6 +646,17 @@
         <v>13</v>
       </c>
     </row>
+    <row r="12" spans="1:4" ht="29.4" thickBot="1">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44473</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Traking.xlsx
+++ b/Traking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>№</t>
   </si>
@@ -83,6 +83,15 @@
   <si>
     <t>Разбор дз
 сложная задача с рекурсией</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>Рекурсия
+Обобщенные функции (Generic)
+Лямбды
+Дополнительные функции для типа (Extension)</t>
   </si>
 </sst>
 </file>
@@ -484,7 +493,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -492,11 +501,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C15:C16"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1"/>
@@ -601,6 +610,9 @@
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="D7" s="4">
+        <v>800</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="115.8" thickBot="1">
       <c r="A8" s="1">
@@ -612,6 +624,9 @@
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="D8" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="29.4" thickBot="1">
       <c r="A9" s="1">
@@ -655,6 +670,17 @@
       </c>
       <c r="C12" s="3" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="58.2" thickBot="1">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44479</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Traking.xlsx
+++ b/Traking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>№</t>
   </si>
@@ -75,6 +75,23 @@
   <si>
     <t>Базовое определение функции
 Работа со строками + некоторые функции LINQ</t>
+  </si>
+  <si>
+    <t>out параметры функции
+Рекурсия начало</t>
+  </si>
+  <si>
+    <t>Разбор дз
+сложная задача с рекурсией</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>Рекурсия
+Обобщенные функции (Generic)
+Лямбды
+Дополнительные функции для типа (Extension)</t>
   </si>
 </sst>
 </file>
@@ -484,11 +501,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1"/>
@@ -593,6 +610,9 @@
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="D7" s="4">
+        <v>800</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="115.8" thickBot="1">
       <c r="A8" s="1">
@@ -604,6 +624,9 @@
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="D8" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="29.4" thickBot="1">
       <c r="A9" s="1">
@@ -625,6 +648,39 @@
       </c>
       <c r="C10" s="3" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="29.4" thickBot="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44467</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="29.4" thickBot="1">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44473</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="58.2" thickBot="1">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44479</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Traking.xlsx
+++ b/Traking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>№</t>
   </si>
@@ -92,6 +92,11 @@
 Обобщенные функции (Generic)
 Лямбды
 Дополнительные функции для типа (Extension)</t>
+  </si>
+  <si>
+    <t>Классы: основы.
+Структура класса.
+Поля, свойства, конструкторы, методы, перегрузка операторов</t>
   </si>
 </sst>
 </file>
@@ -493,7 +498,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -501,11 +506,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C15:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1"/>
@@ -683,6 +688,17 @@
         <v>16</v>
       </c>
     </row>
+    <row r="14" spans="1:4" ht="58.2" thickBot="1">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>44484</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Traking.xlsx
+++ b/Traking.xlsx
@@ -498,7 +498,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -510,7 +510,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C15:C17"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1"/>
@@ -643,6 +643,9 @@
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="D9" s="4">
+        <v>800</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="29.4" thickBot="1">
       <c r="A10" s="1">
@@ -654,6 +657,9 @@
       <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="D10" s="4">
+        <v>800</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="29.4" thickBot="1">
       <c r="A11" s="1">
@@ -664,6 +670,9 @@
       </c>
       <c r="C11" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="D11" s="4">
+        <v>800</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="29.4" thickBot="1">

--- a/Traking.xlsx
+++ b/Traking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>№</t>
   </si>
@@ -92,6 +92,11 @@
 Обобщенные функции (Generic)
 Лямбды
 Дополнительные функции для типа (Extension)</t>
+  </si>
+  <si>
+    <t>Классы: основы.
+Структура класса.
+Поля, свойства, конструкторы, методы, перегрузка операторов</t>
   </si>
 </sst>
 </file>
@@ -501,11 +506,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1"/>
@@ -638,6 +643,9 @@
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="D9" s="4">
+        <v>800</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="29.4" thickBot="1">
       <c r="A10" s="1">
@@ -649,6 +657,9 @@
       <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="D10" s="4">
+        <v>800</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="29.4" thickBot="1">
       <c r="A11" s="1">
@@ -660,6 +671,9 @@
       <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="D11" s="4">
+        <v>800</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="29.4" thickBot="1">
       <c r="A12" s="1">
@@ -681,6 +695,17 @@
       </c>
       <c r="C13" s="3" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="58.2" thickBot="1">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>44484</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Traking.xlsx
+++ b/Traking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>№</t>
   </si>
@@ -97,6 +97,18 @@
     <t>Классы: основы.
 Структура класса.
 Поля, свойства, конструкторы, методы, перегрузка операторов</t>
+  </si>
+  <si>
+    <t>const
+readonly
+static
+this
+get; private set;
+private ctor
+static ctor
+default, ctor, initialisator - order of creation
+partial
+value type inside referense type and opposite</t>
   </si>
 </sst>
 </file>
@@ -498,7 +510,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -506,11 +518,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1"/>
@@ -708,6 +720,17 @@
         <v>17</v>
       </c>
     </row>
+    <row r="15" spans="1:4" ht="144.6" thickBot="1">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>44491</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Traking.xlsx
+++ b/Traking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>№</t>
   </si>
@@ -109,6 +109,22 @@
 default, ctor, initialisator - order of creation
 partial
 value type inside referense type and opposite</t>
+  </si>
+  <si>
+    <t>Почитать</t>
+  </si>
+  <si>
+    <t>1) https://metanit.com/sharp/tutorial/3.12.php - Generic
+2) https://metanit.com/sharp/tutorial/3.38.php - со Сандартные ограничения
+3) https://metanit.com/sharp/tutorial/4.5.php - List
+4) https://metanit.com/sharp/tutorial/4.9.php - Dictionary
+5) https://metanit.com/sharp/tutorial/4.10.php - Индексаторы</t>
+  </si>
+  <si>
+    <t>Дженерик классы
+List
+Dictionary
+Перегрузка индексатора</t>
   </si>
 </sst>
 </file>
@@ -510,7 +526,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -518,22 +534,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1"/>
   <cols>
     <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="52.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="52.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" thickTop="1" thickBot="1">
+    <row r="1" spans="1:5" ht="15.6" thickTop="1" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -543,11 +559,14 @@
       <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="58.8" thickTop="1" thickBot="1">
+    <row r="2" spans="1:5" ht="58.8" thickTop="1" thickBot="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -557,11 +576,12 @@
       <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="87" thickBot="1">
+      <c r="D2" s="7"/>
+      <c r="E2" s="8">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="87" thickBot="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -571,11 +591,11 @@
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" thickBot="1">
+      <c r="E3" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" thickBot="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -585,11 +605,11 @@
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" thickBot="1">
+      <c r="E4" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" thickBot="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -599,11 +619,11 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" thickBot="1">
+      <c r="E5" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" thickBot="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -613,11 +633,11 @@
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="4">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="58.2" thickBot="1">
+      <c r="E6" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="58.2" thickBot="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -627,11 +647,11 @@
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="115.8" thickBot="1">
+      <c r="E7" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="115.8" thickBot="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -641,11 +661,11 @@
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="29.4" thickBot="1">
+    <row r="9" spans="1:5" ht="29.4" thickBot="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -655,11 +675,11 @@
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="4">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="29.4" thickBot="1">
+      <c r="E9" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="29.4" thickBot="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -669,11 +689,11 @@
       <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="4">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="29.4" thickBot="1">
+      <c r="E10" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="29.4" thickBot="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -683,11 +703,11 @@
       <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="4">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="29.4" thickBot="1">
+      <c r="E11" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.4" thickBot="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -697,8 +717,11 @@
       <c r="C12" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="58.2" thickBot="1">
+      <c r="E12" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="58.2" thickBot="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -709,7 +732,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="58.2" thickBot="1">
+    <row r="14" spans="1:5" ht="58.2" thickBot="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -720,7 +743,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="144.6" thickBot="1">
+    <row r="15" spans="1:5" ht="144.6" thickBot="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -729,6 +752,20 @@
       </c>
       <c r="C15" s="3" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="101.4" thickBot="1">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>44497</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Traking.xlsx
+++ b/Traking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>№</t>
   </si>
@@ -97,6 +97,34 @@
     <t>Классы: основы.
 Структура класса.
 Поля, свойства, конструкторы, методы, перегрузка операторов</t>
+  </si>
+  <si>
+    <t>const
+readonly
+static
+this
+get; private set;
+private ctor
+static ctor
+default, ctor, initialisator - order of creation
+partial
+value type inside referense type and opposite</t>
+  </si>
+  <si>
+    <t>Почитать</t>
+  </si>
+  <si>
+    <t>1) https://metanit.com/sharp/tutorial/3.12.php - Generic
+2) https://metanit.com/sharp/tutorial/3.38.php - со Сандартные ограничения
+3) https://metanit.com/sharp/tutorial/4.5.php - List
+4) https://metanit.com/sharp/tutorial/4.9.php - Dictionary
+5) https://metanit.com/sharp/tutorial/4.10.php - Индексаторы</t>
+  </si>
+  <si>
+    <t>Дженерик классы
+List
+Dictionary
+Перегрузка индексатора</t>
   </si>
 </sst>
 </file>
@@ -506,22 +534,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1"/>
   <cols>
     <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="52.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="52.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" thickTop="1" thickBot="1">
+    <row r="1" spans="1:5" ht="15.6" thickTop="1" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -531,11 +559,14 @@
       <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="58.8" thickTop="1" thickBot="1">
+    <row r="2" spans="1:5" ht="58.8" thickTop="1" thickBot="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -545,11 +576,12 @@
       <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="87" thickBot="1">
+      <c r="D2" s="7"/>
+      <c r="E2" s="8">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="87" thickBot="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -559,11 +591,11 @@
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" thickBot="1">
+      <c r="E3" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" thickBot="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -573,11 +605,11 @@
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" thickBot="1">
+      <c r="E4" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" thickBot="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -587,11 +619,11 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" thickBot="1">
+      <c r="E5" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" thickBot="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -601,11 +633,11 @@
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="4">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="58.2" thickBot="1">
+      <c r="E6" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="58.2" thickBot="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -615,11 +647,11 @@
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="115.8" thickBot="1">
+      <c r="E7" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="115.8" thickBot="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -629,11 +661,11 @@
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="29.4" thickBot="1">
+    <row r="9" spans="1:5" ht="29.4" thickBot="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -643,11 +675,11 @@
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="4">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="29.4" thickBot="1">
+      <c r="E9" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="29.4" thickBot="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -657,11 +689,11 @@
       <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="4">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="29.4" thickBot="1">
+      <c r="E10" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="29.4" thickBot="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -671,11 +703,11 @@
       <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="4">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="29.4" thickBot="1">
+      <c r="E11" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.4" thickBot="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -685,8 +717,11 @@
       <c r="C12" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="58.2" thickBot="1">
+      <c r="E12" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="58.2" thickBot="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -697,7 +732,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="58.2" thickBot="1">
+    <row r="14" spans="1:5" ht="58.2" thickBot="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -706,6 +741,31 @@
       </c>
       <c r="C14" s="3" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="144.6" thickBot="1">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>44491</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="101.4" thickBot="1">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>44497</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Traking.xlsx
+++ b/Traking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>№</t>
   </si>
@@ -125,6 +125,9 @@
 List
 Dictionary
 Перегрузка индексатора</t>
+  </si>
+  <si>
+    <t>Знакомство с деревьями</t>
   </si>
 </sst>
 </file>
@@ -526,7 +529,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -534,11 +537,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1"/>
@@ -731,6 +734,9 @@
       <c r="C13" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="E13" s="4">
+        <v>800</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="58.2" thickBot="1">
       <c r="A14" s="1">
@@ -766,6 +772,17 @@
       </c>
       <c r="D16" s="3" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" thickBot="1">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>44502</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Traking.xlsx
+++ b/Traking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>№</t>
   </si>
@@ -128,6 +128,13 @@
   </si>
   <si>
     <t>Знакомство с деревьями</t>
+  </si>
+  <si>
+    <t>https://metanit.com/sharp/tutorial/2.14.php</t>
+  </si>
+  <si>
+    <t>throw exceptions
+try-catch</t>
   </si>
 </sst>
 </file>
@@ -529,7 +536,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -537,11 +544,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1"/>
@@ -748,6 +755,9 @@
       <c r="C14" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="E14" s="4">
+        <v>800</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="144.6" thickBot="1">
       <c r="A15" s="1">
@@ -774,7 +784,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" thickBot="1">
+    <row r="17" spans="1:4" thickBot="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -783,6 +793,20 @@
       </c>
       <c r="C17" s="3" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="29.4" thickBot="1">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>44503</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Traking.xlsx
+++ b/Traking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>№</t>
   </si>
@@ -125,6 +125,16 @@
 List
 Dictionary
 Перегрузка индексатора</t>
+  </si>
+  <si>
+    <t>Знакомство с деревьями</t>
+  </si>
+  <si>
+    <t>https://metanit.com/sharp/tutorial/2.14.php</t>
+  </si>
+  <si>
+    <t>throw exceptions
+try-catch</t>
   </si>
 </sst>
 </file>
@@ -534,11 +544,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1"/>
@@ -731,6 +741,9 @@
       <c r="C13" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="E13" s="4">
+        <v>800</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="58.2" thickBot="1">
       <c r="A14" s="1">
@@ -742,6 +755,9 @@
       <c r="C14" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="E14" s="4">
+        <v>800</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="144.6" thickBot="1">
       <c r="A15" s="1">
@@ -766,6 +782,31 @@
       </c>
       <c r="D16" s="3" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" thickBot="1">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>44502</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="29.4" thickBot="1">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>44503</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Traking.xlsx
+++ b/Traking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>№</t>
   </si>
@@ -135,6 +135,9 @@
   <si>
     <t>throw exceptions
 try-catch</t>
+  </si>
+  <si>
+    <t>Продолжение Generic деревьев</t>
   </si>
 </sst>
 </file>
@@ -536,7 +539,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -544,11 +547,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1"/>
@@ -769,6 +772,9 @@
       <c r="C15" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="E15" s="4">
+        <v>800</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="101.4" thickBot="1">
       <c r="A16" s="1">
@@ -807,6 +813,17 @@
       </c>
       <c r="D18" s="3" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" thickBot="1">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>44515</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Traking.xlsx
+++ b/Traking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>№</t>
   </si>
@@ -138,6 +138,19 @@
   </si>
   <si>
     <t>Продолжение Generic деревьев</t>
+  </si>
+  <si>
+    <t>Наследование.
+Наследование констуркторов
+Приведение типов
+Наследование обобщенных типов
+Перегрузка операторов преобразования типов</t>
+  </si>
+  <si>
+    <t>https://metanit.com/sharp/tutorial/3.7.php
+https://metanit.com/sharp/tutorial/3.11.php
+https://metanit.com/sharp/tutorial/3.37.php
+https://metanit.com/sharp/tutorial/3.39.php</t>
   </si>
 </sst>
 </file>
@@ -539,7 +552,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -547,11 +560,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1"/>
@@ -789,6 +802,9 @@
       <c r="D16" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="E16" s="4">
+        <v>800</v>
+      </c>
     </row>
     <row r="17" spans="1:4" thickBot="1">
       <c r="A17" s="1">
@@ -824,6 +840,20 @@
       </c>
       <c r="C19" s="3" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="72.599999999999994" thickBot="1">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>44519</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Traking.xlsx
+++ b/Traking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>№</t>
   </si>
@@ -111,9 +111,6 @@
 value type inside referense type and opposite</t>
   </si>
   <si>
-    <t>Почитать</t>
-  </si>
-  <si>
     <t>1) https://metanit.com/sharp/tutorial/3.12.php - Generic
 2) https://metanit.com/sharp/tutorial/3.38.php - со Сандартные ограничения
 3) https://metanit.com/sharp/tutorial/4.5.php - List
@@ -151,6 +148,20 @@
 https://metanit.com/sharp/tutorial/3.11.php
 https://metanit.com/sharp/tutorial/3.37.php
 https://metanit.com/sharp/tutorial/3.39.php</t>
+  </si>
+  <si>
+    <t>Абстрактные классы
+Интерфейсы</t>
+  </si>
+  <si>
+    <t>Задание</t>
+  </si>
+  <si>
+    <t>Глава 17 - абстракционизм
+Глава 18 интерфесы
+https://metanit.com/sharp/tutorial/3.47.php
+Создать иерархию с абстракциями и интерфесами
+Изучить диаграммы UML</t>
   </si>
 </sst>
 </file>
@@ -552,7 +563,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -560,11 +571,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1"/>
@@ -586,7 +597,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>3</v>
@@ -797,16 +808,16 @@
         <v>44497</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="4">
         <v>800</v>
       </c>
     </row>
-    <row r="17" spans="1:4" thickBot="1">
+    <row r="17" spans="1:5" thickBot="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -814,10 +825,13 @@
         <v>44502</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="29.4" thickBot="1">
+        <v>21</v>
+      </c>
+      <c r="E17" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="29.4" thickBot="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -825,13 +839,13 @@
         <v>44503</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" thickBot="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -839,10 +853,10 @@
         <v>44515</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="72.599999999999994" thickBot="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="72.599999999999994" thickBot="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -850,10 +864,24 @@
         <v>44519</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="3" t="s">
+    </row>
+    <row r="21" spans="1:5" ht="72.599999999999994" thickBot="1">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>44522</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>27</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Traking.xlsx
+++ b/Traking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>№</t>
   </si>
@@ -162,6 +162,13 @@
 https://metanit.com/sharp/tutorial/3.47.php
 Создать иерархию с абстракциями и интерфесами
 Изучить диаграммы UML</t>
+  </si>
+  <si>
+    <t>Полиморфизм
+Виртуальные методы</t>
+  </si>
+  <si>
+    <t>Файл</t>
   </si>
 </sst>
 </file>
@@ -563,7 +570,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -571,11 +578,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1"/>
@@ -844,6 +851,9 @@
       <c r="D18" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="E18" s="4">
+        <v>800</v>
+      </c>
     </row>
     <row r="19" spans="1:5" thickBot="1">
       <c r="A19" s="1">
@@ -882,6 +892,20 @@
       </c>
       <c r="D21" s="3" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="29.4" thickBot="1">
+      <c r="A22" s="1">
+        <v>25</v>
+      </c>
+      <c r="B22" s="2">
+        <v>44525</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Traking.xlsx
+++ b/Traking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>№</t>
   </si>
@@ -169,6 +169,16 @@
   </si>
   <si>
     <t>Файл</t>
+  </si>
+  <si>
+    <t>Реализация интерфейсов клонирования, сортировки, IEnumerator</t>
+  </si>
+  <si>
+    <t>https://metanit.com/sharp/tutorial/3.22.php
+https://metanit.com/sharp/tutorial/3.23.php
+https://metanit.com/sharp/tutorial/4.11.php
+Реализовать IСlonable и IEnumerator для дерева в D:\Teaching\Homework.GenericTree 
+Выполнять в новой ветке</t>
   </si>
 </sst>
 </file>
@@ -570,7 +580,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -578,11 +588,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1"/>
@@ -865,6 +875,9 @@
       <c r="C19" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="E19" s="4">
+        <v>800</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="72.599999999999994" thickBot="1">
       <c r="A20" s="1">
@@ -906,6 +919,20 @@
       </c>
       <c r="D22" s="3" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="101.4" thickBot="1">
+      <c r="A23" s="1">
+        <v>26</v>
+      </c>
+      <c r="B23" s="2">
+        <v>44530</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Traking.xlsx
+++ b/Traking.xlsx
@@ -580,7 +580,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -591,8 +591,8 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1"/>

--- a/Traking.xlsx
+++ b/Traking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>№</t>
   </si>
@@ -169,6 +169,16 @@
   </si>
   <si>
     <t>Файл</t>
+  </si>
+  <si>
+    <t>Реализация интерфейсов клонирования, сортировки, IEnumerator</t>
+  </si>
+  <si>
+    <t>https://metanit.com/sharp/tutorial/3.22.php
+https://metanit.com/sharp/tutorial/3.23.php
+https://metanit.com/sharp/tutorial/4.11.php
+Реализовать IСlonable и IEnumerator для дерева в D:\Teaching\Homework.GenericTree 
+Выполнять в новой ветке</t>
   </si>
 </sst>
 </file>
@@ -578,11 +588,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1"/>
@@ -865,6 +875,9 @@
       <c r="C19" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="E19" s="4">
+        <v>800</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="72.599999999999994" thickBot="1">
       <c r="A20" s="1">
@@ -906,6 +919,20 @@
       </c>
       <c r="D22" s="3" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="101.4" thickBot="1">
+      <c r="A23" s="1">
+        <v>26</v>
+      </c>
+      <c r="B23" s="2">
+        <v>44530</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Traking.xlsx
+++ b/Traking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>№</t>
   </si>
@@ -179,6 +179,13 @@
 https://metanit.com/sharp/tutorial/4.11.php
 Реализовать IСlonable и IEnumerator для дерева в D:\Teaching\Homework.GenericTree 
 Выполнять в новой ветке</t>
+  </si>
+  <si>
+    <t>Реализация динамического меню</t>
+  </si>
+  <si>
+    <t>Вынести создавалку меню в отдельный класс
+Применить меню к person-student-teacher</t>
   </si>
 </sst>
 </file>
@@ -580,7 +587,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -588,11 +595,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1"/>
@@ -892,6 +899,9 @@
       <c r="D20" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="E20" s="4">
+        <v>800</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="72.599999999999994" thickBot="1">
       <c r="A21" s="1">
@@ -906,6 +916,9 @@
       <c r="D21" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="E21" s="4">
+        <v>800</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="29.4" thickBot="1">
       <c r="A22" s="1">
@@ -933,6 +946,20 @@
       </c>
       <c r="D23" s="3" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="29.4" thickBot="1">
+      <c r="A24" s="1">
+        <v>27</v>
+      </c>
+      <c r="B24" s="2">
+        <v>44506</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Traking.xlsx
+++ b/Traking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>№</t>
   </si>
@@ -186,6 +186,9 @@
   <si>
     <t>Вынести создавалку меню в отдельный класс
 Применить меню к person-student-teacher</t>
+  </si>
+  <si>
+    <t>Юнит тесты</t>
   </si>
 </sst>
 </file>
@@ -587,7 +590,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -595,11 +598,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1"/>
@@ -933,6 +936,9 @@
       <c r="D22" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="E22" s="4">
+        <v>800</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="101.4" thickBot="1">
       <c r="A23" s="1">
@@ -953,13 +959,24 @@
         <v>27</v>
       </c>
       <c r="B24" s="2">
-        <v>44506</v>
+        <v>44536</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" thickBot="1">
+      <c r="A25" s="1">
+        <v>28</v>
+      </c>
+      <c r="B25" s="2">
+        <v>44540</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Traking.xlsx
+++ b/Traking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>№</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>Юнит тесты</t>
+  </si>
+  <si>
+    <t>Моки</t>
+  </si>
+  <si>
+    <t>Реализовать и протестировать SetStudentToTeacher</t>
   </si>
 </sst>
 </file>
@@ -590,7 +596,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -598,11 +604,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1"/>
@@ -953,6 +959,9 @@
       <c r="D23" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="E23" s="4">
+        <v>800</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="29.4" thickBot="1">
       <c r="A24" s="1">
@@ -977,6 +986,20 @@
       </c>
       <c r="C25" s="3" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" thickBot="1">
+      <c r="A26" s="1">
+        <v>29</v>
+      </c>
+      <c r="B26" s="2">
+        <v>44543</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Traking.xlsx
+++ b/Traking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>№</t>
   </si>
@@ -195,6 +195,13 @@
   </si>
   <si>
     <t>Реализовать и протестировать SetStudentToTeacher</t>
+  </si>
+  <si>
+    <t>Сложность алгоритмов. Связный списко</t>
+  </si>
+  <si>
+    <t>Реализовать двусвязный список с теми же методами, которые в односвязном и покрыть всеми тестами. Определить сложсноть каждого метода.
+Реализовать форыч в обратном порядке</t>
   </si>
 </sst>
 </file>
@@ -596,7 +603,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -604,11 +611,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1"/>
@@ -976,6 +983,9 @@
       <c r="D24" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="E24" s="4">
+        <v>800</v>
+      </c>
     </row>
     <row r="25" spans="1:5" thickBot="1">
       <c r="A25" s="1">
@@ -1000,6 +1010,20 @@
       </c>
       <c r="D26" s="3" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="58.2" thickBot="1">
+      <c r="A27" s="1">
+        <v>30</v>
+      </c>
+      <c r="B27" s="2">
+        <v>44548</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Traking.xlsx
+++ b/Traking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>№</t>
   </si>
@@ -189,6 +189,19 @@
   </si>
   <si>
     <t>Юнит тесты</t>
+  </si>
+  <si>
+    <t>Моки</t>
+  </si>
+  <si>
+    <t>Реализовать и протестировать SetStudentToTeacher</t>
+  </si>
+  <si>
+    <t>Сложность алгоритмов. Связный списко</t>
+  </si>
+  <si>
+    <t>Реализовать двусвязный список с теми же методами, которые в односвязном и покрыть всеми тестами. Определить сложсноть каждого метода.
+Реализовать форыч в обратном порядке</t>
   </si>
 </sst>
 </file>
@@ -598,11 +611,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1"/>
@@ -953,6 +966,9 @@
       <c r="D23" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="E23" s="4">
+        <v>800</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="29.4" thickBot="1">
       <c r="A24" s="1">
@@ -967,6 +983,9 @@
       <c r="D24" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="E24" s="4">
+        <v>800</v>
+      </c>
     </row>
     <row r="25" spans="1:5" thickBot="1">
       <c r="A25" s="1">
@@ -977,6 +996,34 @@
       </c>
       <c r="C25" s="3" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" thickBot="1">
+      <c r="A26" s="1">
+        <v>29</v>
+      </c>
+      <c r="B26" s="2">
+        <v>44543</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="58.2" thickBot="1">
+      <c r="A27" s="1">
+        <v>30</v>
+      </c>
+      <c r="B27" s="2">
+        <v>44548</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Traking.xlsx
+++ b/Traking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>№</t>
   </si>
@@ -197,11 +197,17 @@
     <t>Реализовать и протестировать SetStudentToTeacher</t>
   </si>
   <si>
-    <t>Сложность алгоритмов. Связный списко</t>
-  </si>
-  <si>
     <t>Реализовать двусвязный список с теми же методами, которые в односвязном и покрыть всеми тестами. Определить сложсноть каждого метода.
 Реализовать форыч в обратном порядке</t>
+  </si>
+  <si>
+    <t>Сложность алгоритмов. Связный список</t>
+  </si>
+  <si>
+    <t>Stack, Queue</t>
+  </si>
+  <si>
+    <t>Implement Deque</t>
   </si>
 </sst>
 </file>
@@ -603,7 +609,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -611,11 +617,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1"/>
@@ -997,6 +1003,9 @@
       <c r="C25" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="E25" s="4">
+        <v>800</v>
+      </c>
     </row>
     <row r="26" spans="1:5" thickBot="1">
       <c r="A26" s="1">
@@ -1020,10 +1029,24 @@
         <v>44548</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>40</v>
+    </row>
+    <row r="28" spans="1:5" thickBot="1">
+      <c r="A28" s="1">
+        <v>31</v>
+      </c>
+      <c r="B28" s="2">
+        <v>44551</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Traking.xlsx
+++ b/Traking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>№</t>
   </si>
@@ -197,17 +197,24 @@
     <t>Реализовать и протестировать SetStudentToTeacher</t>
   </si>
   <si>
-    <t>Реализовать двусвязный список с теми же методами, которые в односвязном и покрыть всеми тестами. Определить сложсноть каждого метода.
-Реализовать форыч в обратном порядке</t>
-  </si>
-  <si>
     <t>Сложность алгоритмов. Связный список</t>
   </si>
   <si>
     <t>Stack, Queue</t>
   </si>
   <si>
-    <t>Implement Deque</t>
+    <t>Buble sort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Реализовать двусвязный список с теми же методами, которые в односвязном и покрыть всеми тестами. Определить сложсноть каждого метода.
+Реализовать форыч в обратном порядке
+https://metanit.com/sharp/algoritm/
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Deque
+https://metanit.com/sharp/algoritm/
+</t>
   </si>
 </sst>
 </file>
@@ -609,7 +616,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -617,11 +624,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1"/>
@@ -1020,8 +1027,11 @@
       <c r="D26" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="58.2" thickBot="1">
+      <c r="E26" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="87" thickBot="1">
       <c r="A27" s="1">
         <v>30</v>
       </c>
@@ -1029,13 +1039,13 @@
         <v>44548</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" thickBot="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="43.8" thickBot="1">
       <c r="A28" s="1">
         <v>31</v>
       </c>
@@ -1043,10 +1053,21 @@
         <v>44551</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" thickBot="1">
+      <c r="A29" s="1">
+        <v>32</v>
+      </c>
+      <c r="B29" s="2">
+        <v>44554</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Traking.xlsx
+++ b/Traking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>№</t>
   </si>
@@ -215,6 +215,9 @@
     <t xml:space="preserve">Implement Deque
 https://metanit.com/sharp/algoritm/
 </t>
+  </si>
+  <si>
+    <t>Shaker sort. Algorithms comparison</t>
   </si>
 </sst>
 </file>
@@ -616,7 +619,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -624,11 +627,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1"/>
@@ -1070,6 +1073,17 @@
         <v>41</v>
       </c>
     </row>
+    <row r="30" spans="1:5" thickBot="1">
+      <c r="A30" s="1">
+        <v>33</v>
+      </c>
+      <c r="B30" s="2">
+        <v>44558</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Traking.xlsx
+++ b/Traking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>№</t>
   </si>
@@ -218,6 +218,12 @@
   </si>
   <si>
     <t>Shaker sort. Algorithms comparison</t>
+  </si>
+  <si>
+    <t>Insert sort</t>
+  </si>
+  <si>
+    <t>D:\Teaching\12.Algorithms\Tasks\Tasks</t>
   </si>
 </sst>
 </file>
@@ -619,7 +625,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -627,11 +633,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29:XFD29"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1"/>
@@ -1047,6 +1053,9 @@
       <c r="D27" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="E27" s="4">
+        <v>800</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="43.8" thickBot="1">
       <c r="A28" s="1">
@@ -1061,6 +1070,9 @@
       <c r="D28" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E28" s="4">
+        <v>800</v>
+      </c>
     </row>
     <row r="29" spans="1:5" thickBot="1">
       <c r="A29" s="1">
@@ -1072,6 +1084,9 @@
       <c r="C29" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="E29" s="4">
+        <v>800</v>
+      </c>
     </row>
     <row r="30" spans="1:5" thickBot="1">
       <c r="A30" s="1">
@@ -1082,6 +1097,23 @@
       </c>
       <c r="C30" s="3" t="s">
         <v>44</v>
+      </c>
+      <c r="E30" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" thickBot="1">
+      <c r="A31" s="1">
+        <v>34</v>
+      </c>
+      <c r="B31" s="2">
+        <v>44572</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Traking.xlsx
+++ b/Traking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>№</t>
   </si>
@@ -224,6 +224,12 @@
   </si>
   <si>
     <t>D:\Teaching\12.Algorithms\Tasks\Tasks</t>
+  </si>
+  <si>
+    <t>Разбор дз</t>
+  </si>
+  <si>
+    <t>D:\Teaching\12.Algorithms\Tasks\Task2</t>
   </si>
 </sst>
 </file>
@@ -625,7 +631,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -633,11 +639,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1"/>
@@ -1115,6 +1121,23 @@
       <c r="D31" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="E31" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" thickBot="1">
+      <c r="A32" s="1">
+        <v>35</v>
+      </c>
+      <c r="B32" s="2">
+        <v>44579</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Traking.xlsx
+++ b/Traking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>№</t>
   </si>
@@ -230,6 +230,12 @@
   </si>
   <si>
     <t>D:\Teaching\12.Algorithms\Tasks\Task2</t>
+  </si>
+  <si>
+    <t>Quick sort</t>
+  </si>
+  <si>
+    <t>Паттерны Strategy, Factory</t>
   </si>
 </sst>
 </file>
@@ -639,11 +645,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1"/>
@@ -1138,6 +1144,34 @@
       <c r="D32" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="E32" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" thickBot="1">
+      <c r="A33" s="1">
+        <v>36</v>
+      </c>
+      <c r="B33" s="2">
+        <v>44606</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" thickBot="1">
+      <c r="A34" s="1">
+        <v>37</v>
+      </c>
+      <c r="B34" s="2">
+        <v>44676</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Traking.xlsx
+++ b/Traking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>№</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>Паттерны Strategy, Factory</t>
+  </si>
+  <si>
+    <t>Паттерн Observer</t>
   </si>
 </sst>
 </file>
@@ -637,7 +640,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -645,11 +648,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1"/>
@@ -1172,6 +1175,20 @@
       <c r="C34" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="E34" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" thickBot="1">
+      <c r="A35" s="1">
+        <v>38</v>
+      </c>
+      <c r="B35" s="2">
+        <v>44686</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Traking.xlsx
+++ b/Traking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>№</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>Паттерн Observer</t>
+  </si>
+  <si>
+    <t>Паттерн Singletone, Adapter</t>
   </si>
 </sst>
 </file>
@@ -640,7 +643,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -648,11 +651,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1"/>
@@ -1189,6 +1192,20 @@
       <c r="C35" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="E35" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" thickBot="1">
+      <c r="A36" s="1">
+        <v>39</v>
+      </c>
+      <c r="B36" s="2">
+        <v>44688</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Traking.xlsx
+++ b/Traking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>№</t>
   </si>
@@ -243,6 +243,15 @@
   <si>
     <t>Паттерн Singletone, Adapter</t>
   </si>
+  <si>
+    <t>Паттерн Decorator</t>
+  </si>
+  <si>
+    <t>Паттерны Proxy, Prototype</t>
+  </si>
+  <si>
+    <t>https://metanit.com/sharp/patterns/1.1.php</t>
+  </si>
 </sst>
 </file>
 
@@ -252,7 +261,7 @@
     <numFmt numFmtId="164" formatCode="[$-FC19]dd\ mmmm\ yyyy\ \г\.;@"/>
     <numFmt numFmtId="165" formatCode="#,##0\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +278,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -278,7 +294,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -329,11 +345,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -371,8 +415,18 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -651,11 +705,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1"/>
@@ -1178,6 +1232,9 @@
       <c r="C34" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="D34" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="E34" s="4">
         <v>800</v>
       </c>
@@ -1192,6 +1249,7 @@
       <c r="C35" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="D35" s="14"/>
       <c r="E35" s="4">
         <v>800</v>
       </c>
@@ -1206,9 +1264,46 @@
       <c r="C36" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" thickBot="1">
+      <c r="A37" s="1">
+        <v>40</v>
+      </c>
+      <c r="B37" s="2">
+        <v>44693</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="14"/>
+      <c r="E37" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" thickBot="1">
+      <c r="A38" s="1">
+        <v>41</v>
+      </c>
+      <c r="B38" s="2">
+        <v>44694</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="15"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D34:D38"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D34" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Traking.xlsx
+++ b/Traking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>№</t>
   </si>
@@ -251,6 +251,12 @@
   </si>
   <si>
     <t>https://metanit.com/sharp/patterns/1.1.php</t>
+  </si>
+  <si>
+    <t>Sockets</t>
+  </si>
+  <si>
+    <t>https://metanit.com/sharp/net/1.1.php</t>
   </si>
 </sst>
 </file>
@@ -377,7 +383,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -423,6 +429,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -705,11 +714,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
+      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1"/>
@@ -1295,6 +1304,23 @@
         <v>54</v>
       </c>
       <c r="D38" s="15"/>
+      <c r="E38" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" thickBot="1">
+      <c r="A39" s="1">
+        <v>42</v>
+      </c>
+      <c r="B39" s="2">
+        <v>44700</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1302,8 +1328,9 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D34" r:id="rId1"/>
+    <hyperlink ref="D39" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Traking.xlsx
+++ b/Traking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>№</t>
   </si>
@@ -257,6 +257,12 @@
   </si>
   <si>
     <t>https://metanit.com/sharp/net/1.1.php</t>
+  </si>
+  <si>
+    <t>Boxing / unboxing</t>
+  </si>
+  <si>
+    <t>Рихтер</t>
   </si>
 </sst>
 </file>
@@ -383,7 +389,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -421,6 +427,9 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -430,9 +439,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -706,7 +713,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -714,11 +721,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomLeft" activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1"/>
@@ -1217,7 +1224,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="1:5" thickBot="1">
+    <row r="33" spans="1:6" thickBot="1">
       <c r="A33" s="1">
         <v>36</v>
       </c>
@@ -1231,7 +1238,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="34" spans="1:5" thickBot="1">
+    <row r="34" spans="1:6" thickBot="1">
       <c r="A34" s="1">
         <v>37</v>
       </c>
@@ -1241,14 +1248,14 @@
       <c r="C34" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="14" t="s">
         <v>55</v>
       </c>
       <c r="E34" s="4">
         <v>800</v>
       </c>
     </row>
-    <row r="35" spans="1:5" thickBot="1">
+    <row r="35" spans="1:6" thickBot="1">
       <c r="A35" s="1">
         <v>38</v>
       </c>
@@ -1258,12 +1265,12 @@
       <c r="C35" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="14"/>
+      <c r="D35" s="15"/>
       <c r="E35" s="4">
         <v>800</v>
       </c>
     </row>
-    <row r="36" spans="1:5" thickBot="1">
+    <row r="36" spans="1:6" thickBot="1">
       <c r="A36" s="1">
         <v>39</v>
       </c>
@@ -1273,12 +1280,12 @@
       <c r="C36" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="14"/>
+      <c r="D36" s="15"/>
       <c r="E36" s="4">
         <v>800</v>
       </c>
     </row>
-    <row r="37" spans="1:5" thickBot="1">
+    <row r="37" spans="1:6" thickBot="1">
       <c r="A37" s="1">
         <v>40</v>
       </c>
@@ -1288,12 +1295,12 @@
       <c r="C37" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="14"/>
+      <c r="D37" s="15"/>
       <c r="E37" s="4">
         <v>800</v>
       </c>
     </row>
-    <row r="38" spans="1:5" thickBot="1">
+    <row r="38" spans="1:6" thickBot="1">
       <c r="A38" s="1">
         <v>41</v>
       </c>
@@ -1303,12 +1310,12 @@
       <c r="C38" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="15"/>
+      <c r="D38" s="16"/>
       <c r="E38" s="4">
         <v>800</v>
       </c>
     </row>
-    <row r="39" spans="1:5" thickBot="1">
+    <row r="39" spans="1:6" thickBot="1">
       <c r="A39" s="1">
         <v>42</v>
       </c>
@@ -1318,9 +1325,27 @@
       <c r="C39" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="13" t="s">
         <v>57</v>
       </c>
+      <c r="E39" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" thickBot="1">
+      <c r="A40" s="1">
+        <v>43</v>
+      </c>
+      <c r="B40" s="2">
+        <v>44710</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Traking.xlsx
+++ b/Traking.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>№</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>Рихтер</t>
+  </si>
+  <si>
+    <t>Задачи с собесов 1</t>
   </si>
 </sst>
 </file>
@@ -430,6 +433,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -439,7 +443,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -713,7 +716,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -721,11 +724,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H39" sqref="H39"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" thickBottom="1"/>
@@ -1248,7 +1251,7 @@
       <c r="C34" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="15" t="s">
         <v>55</v>
       </c>
       <c r="E34" s="4">
@@ -1265,7 +1268,7 @@
       <c r="C35" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="15"/>
+      <c r="D35" s="16"/>
       <c r="E35" s="4">
         <v>800</v>
       </c>
@@ -1280,7 +1283,7 @@
       <c r="C36" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="15"/>
+      <c r="D36" s="16"/>
       <c r="E36" s="4">
         <v>800</v>
       </c>
@@ -1295,7 +1298,7 @@
       <c r="C37" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="15"/>
+      <c r="D37" s="16"/>
       <c r="E37" s="4">
         <v>800</v>
       </c>
@@ -1310,7 +1313,7 @@
       <c r="C38" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="16"/>
+      <c r="D38" s="17"/>
       <c r="E38" s="4">
         <v>800</v>
       </c>
@@ -1345,7 +1348,18 @@
       <c r="D40" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F40" s="17"/>
+      <c r="F40" s="14"/>
+    </row>
+    <row r="41" spans="1:6" thickBot="1">
+      <c r="A41" s="1">
+        <v>44</v>
+      </c>
+      <c r="B41" s="2">
+        <v>44712</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
